--- a/flights.xlsx
+++ b/flights.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>A77</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Avianca</t>
   </si>
   <si>
-    <t>A87</t>
-  </si>
-  <si>
     <t>LUFTAFA</t>
   </si>
   <si>
@@ -78,6 +72,18 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>A78</t>
+  </si>
+  <si>
+    <t>A79</t>
+  </si>
+  <si>
+    <t>A80</t>
+  </si>
+  <si>
+    <t>A81</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,25 +418,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1">
         <v>712</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1">
         <v>39763</v>
@@ -441,25 +447,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>812</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
         <v>44116</v>
@@ -470,25 +476,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>912</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>43962</v>
@@ -499,25 +505,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
       <c r="C4">
         <v>1012</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>43961</v>
